--- a/build/resources/test/datadriven/compras.xlsx
+++ b/build/resources/test/datadriven/compras.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19020" windowHeight="7215" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19020" windowHeight="7215"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>answerExpected</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>El carrito fue vaciado!</t>
+  </si>
+  <si>
+    <t>Gorra En Dril Publicitaria Con Cierre En Hebilla En Colores</t>
   </si>
 </sst>
 </file>
@@ -425,16 +428,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -474,6 +477,14 @@
       </c>
       <c r="D3">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -486,7 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
